--- a/biology/Biologie cellulaire et moléculaire/Adelaide_Carpenter/Adelaide_Carpenter.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Adelaide_Carpenter/Adelaide_Carpenter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelaide T. C. Carpenter (née le 24 juin 1944) est une généticienne américaine spécialiste des mouches des fruits à l'université de Cambridge.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelaide Carpenter est née le 24 juin 1944 en Géorgie, aux États-Unis, et grandit en Caroline du Nord. Dans les années 1970, alors qu'elle est à l'université de Washington, elle est l'un des nombreux étudiants diplômés ayant pour mentor Larry Sandler[1]. En 1976, Elle obtient un poste de professeure à l'université de Californie, à San Diego. En 1989, après être devenue professeure titulaire, elle prend un second congé sabbatique au Royaume-Uni.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelaide Carpenter est née le 24 juin 1944 en Géorgie, aux États-Unis, et grandit en Caroline du Nord. Dans les années 1970, alors qu'elle est à l'université de Washington, elle est l'un des nombreux étudiants diplômés ayant pour mentor Larry Sandler. En 1976, Elle obtient un poste de professeure à l'université de Californie, à San Diego. En 1989, après être devenue professeure titulaire, elle prend un second congé sabbatique au Royaume-Uni.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1975, Adelaide Carpenter découvre et publie un article sur le nodule de recombinaison, un organite qui sert de médiateur à la recombinaison méiotique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1975, Adelaide Carpenter découvre et publie un article sur le nodule de recombinaison, un organite qui sert de médiateur à la recombinaison méiotique.
 </t>
         </is>
       </c>
